--- a/src/test/resources/TestData/Ds_algo_Testdata.xlsx
+++ b/src/test/resources/TestData/Ds_algo_Testdata.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26220"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECF2661C-24EF-49F7-88AD-3B830DAA239F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanth\git\Ds_algo\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21CAE9D8-6806-4B60-A773-172812A94639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" r:id="rId1"/>
-    <sheet name="valid_login" sheetId="3" r:id="rId2"/>
-    <sheet name="python_code" sheetId="4" r:id="rId3"/>
-    <sheet name="invalid_valid" sheetId="2" r:id="rId4"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Register" sheetId="3" r:id="rId2"/>
+    <sheet name="Arraypage_Phytoncode" sheetId="2" r:id="rId3"/>
+    <sheet name="python_code" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,48 +39,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>username</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>Webisite@1</t>
+  </si>
+  <si>
+    <t>facebook2</t>
+  </si>
+  <si>
+    <t>Webisite@2</t>
+  </si>
+  <si>
     <t>password1</t>
   </si>
   <si>
     <t>password2</t>
   </si>
   <si>
-    <t>newuser</t>
-  </si>
-  <si>
-    <t>newuser1</t>
-  </si>
-  <si>
-    <t>password@1</t>
-  </si>
-  <si>
-    <t>usename</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>PapaJohns</t>
-  </si>
-  <si>
-    <t>Password@1!</t>
+    <t>newuser34</t>
+  </si>
+  <si>
+    <t>passss</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>newuser105</t>
+  </si>
+  <si>
+    <t>Password@1</t>
+  </si>
+  <si>
+    <t>Python code</t>
+  </si>
+  <si>
+    <t>grocery = ["apples", "banana", "cucumbers", "dates","strawberries"]
+grocery.insert(2, "carrots")
+print (grocery);</t>
+  </si>
+  <si>
+    <t>print("apple")</t>
+  </si>
+  <si>
+    <t>kanthi</t>
   </si>
   <si>
     <t>code</t>
   </si>
   <si>
     <t>print("Success")</t>
-  </si>
-  <si>
-    <t>Password@1</t>
-  </si>
-  <si>
-    <t>Password1</t>
   </si>
 </sst>
 </file>
@@ -92,10 +114,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF444444"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,15 +137,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{BA4960A7-AA86-4B8E-A89C-0BF8B4E84F46}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -401,153 +427,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>789</v>
-      </c>
-      <c r="B4">
-        <v>678</v>
-      </c>
-      <c r="C4">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B19E7B-219C-4B1B-AADD-7C4F522771FD}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4576AB-E91C-43CC-9F68-79A2BC28376E}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13D4226-ECE6-4972-9166-B1F4F9A08BF0}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -555,39 +444,148 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C3E36F-0C67-4A85-8BCF-BB8EFC2A4319}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
       <c r="B2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>123</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1BC267-DEF1-4B3C-92A1-70921A8F27B1}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="75">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAB6A53-4811-4AE5-8BB4-D8C99FD7B427}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
